--- a/output_1_iris1.xlsx
+++ b/output_1_iris1.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9766666666666668</v>
+        <v>0.9733333333333334</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.95</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9533333333333334</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.9600000000000002</v>
+        <v>0.9533333333333335</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.9466666666666667</v>
+        <v>0.9266666666666667</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9700000000000001</v>
+        <v>0.9533333333333335</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0.9566666666666668</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.9666666666666668</v>
+        <v>0.93</v>
       </c>
       <c r="E10">
         <v>1</v>

--- a/output_1_iris1.xlsx
+++ b/output_1_iris1.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9733333333333334</v>
+        <v>0.9700000000000001</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.9800000000000001</v>
+        <v>0.9633333333333335</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.95</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9666666666666668</v>
+        <v>0.9733333333333334</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.9533333333333335</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.9266666666666667</v>
+        <v>0.96</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9533333333333335</v>
+        <v>0.9633333333333333</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.93</v>
+        <v>0.9733333333333333</v>
       </c>
       <c r="E10">
         <v>1</v>
